--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC49A716-9460-5B46-A0F4-AC02B8F5844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA6C3A-2305-564E-B2E3-EC309B5B9ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="816">
   <si>
     <t>Screening</t>
   </si>
@@ -2489,34 +2489,25 @@
     <t>plannedAge</t>
   </si>
   <si>
-    <t>@plannedAge/Range/</t>
-  </si>
-  <si>
     <t>@plannedAge/Range/maxValue</t>
   </si>
   <si>
     <t>@label</t>
   </si>
   <si>
-    <t>max_age_2</t>
-  </si>
-  <si>
-    <t>@plannedAge/Range</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
-    <t>Subjects shall be between [min_age] and [max_age_2]</t>
-  </si>
-  <si>
     <t>SPONSOR: MILD_MOD_ALZ=Mild to Moderate Alzheimer's Disease, SNOMED: 26929004=Alzheimer's disease</t>
   </si>
   <si>
     <t>Patients with Probable Mild to Moderate Alzheimer's Disease</t>
   </si>
   <si>
-    <t>&lt;usdm:ref element="study_full_title"&gt;&lt;br/&gt;&lt;usdm:ref element="study_acronym"&gt;</t>
+    <t>@plannedAge/Range/minValue</t>
+  </si>
+  <si>
+    <t>TITLE XXX: &lt;usdm:ref element="study_full_title"/&gt;&lt;br/&gt;ACRONYM XXX: &lt;usdm:ref element="study_acronym"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3074,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5294,7 +5285,7 @@
         <v>596</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -6388,10 +6379,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6446,8 +6437,8 @@
       <c r="F2" t="s">
         <v>596</v>
       </c>
-      <c r="G2" t="s">
-        <v>809</v>
+      <c r="G2" s="9" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6461,12 +6452,12 @@
         <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>812</v>
+        <v>689</v>
       </c>
       <c r="E4" t="s">
         <v>595</v>
@@ -6475,44 +6466,30 @@
         <v>596</v>
       </c>
       <c r="G4" t="s">
-        <v>813</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C5" t="s">
+        <v>692</v>
+      </c>
       <c r="D5" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="E5" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="F5" t="s">
-        <v>596</v>
+        <v>694</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>690</v>
-      </c>
-      <c r="B6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D6" t="s">
-        <v>693</v>
-      </c>
-      <c r="E6" t="s">
-        <v>566</v>
-      </c>
-      <c r="F6" t="s">
-        <v>694</v>
-      </c>
-      <c r="G6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -6525,7 +6502,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6559,7 +6536,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7941,7 +7918,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -8143,7 +8120,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8262,7 +8239,7 @@
         <v>583</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>585</v>
@@ -8271,7 +8248,7 @@
         <v>586</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>815</v>
+        <v>587</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>588</v>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA6C3A-2305-564E-B2E3-EC309B5B9ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8991B-4D44-104A-8550-46715BC0F3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -2507,7 +2507,7 @@
     <t>@plannedAge/Range/minValue</t>
   </si>
   <si>
-    <t>TITLE XXX: &lt;usdm:ref element="study_full_title"/&gt;&lt;br/&gt;ACRONYM XXX: &lt;usdm:ref element="study_acronym"/&gt;</t>
+    <t>TITLE: &lt;usdm:ref element="study_full_title"/&gt;&lt;br/&gt;ACRONYM: &lt;usdm:ref element="study_acronym"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -6502,7 +6502,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8991B-4D44-104A-8550-46715BC0F3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774CF058-4D0B-F148-BB11-0B7880E65F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="-500" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="818">
   <si>
     <t>Screening</t>
   </si>
@@ -2508,6 +2508,12 @@
   </si>
   <si>
     <t>TITLE: &lt;usdm:ref element="study_full_title"/&gt;&lt;br/&gt;ACRONYM: &lt;usdm:ref element="study_acronym"/&gt;</t>
+  </si>
+  <si>
+    <t>SPONSOR ID: &lt;usdm:ref element="study_identifier"/&gt;</t>
+  </si>
+  <si>
+    <t>INVALID: &lt;usdm:ref element="xxx"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2749,13 +2755,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6502,7 +6508,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6547,6 +6553,9 @@
       <c r="C3" s="6" t="s">
         <v>227</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
@@ -6554,6 +6563,9 @@
       </c>
       <c r="C4" s="6" t="s">
         <v>229</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7893,120 +7905,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8098,16 +8110,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11750,6 +11762,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11758,15 +11779,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11971,6 +11983,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11983,14 +12003,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774CF058-4D0B-F148-BB11-0B7880E65F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D95D49B-0333-4540-A8CD-0CD6D3B46EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-500" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="1940" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="819">
   <si>
     <t>Screening</t>
   </si>
@@ -2514,6 +2514,9 @@
   </si>
   <si>
     <t>INVALID: &lt;usdm:ref element="xxx"/&gt;</t>
+  </si>
+  <si>
+    <t>NONE:&lt;usdm:ref element="no_value_for_test"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -6508,7 +6511,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6574,6 +6577,9 @@
       </c>
       <c r="C5" s="6" t="s">
         <v>231</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D95D49B-0333-4540-A8CD-0CD6D3B46EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC3A4DE-A5A0-3147-9F6A-D784095D0764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="820">
   <si>
     <t>Screening</t>
   </si>
@@ -2517,6 +2517,9 @@
   </si>
   <si>
     <t>NONE:&lt;usdm:ref element="no_value_for_test"/&gt;</t>
+  </si>
+  <si>
+    <t>RATIONALE:&lt;usdm:ref element="study_rationale"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -6511,7 +6514,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6588,6 +6591,9 @@
       </c>
       <c r="C6" s="6" t="s">
         <v>233</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC3A4DE-A5A0-3147-9F6A-D784095D0764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3944A-A9A4-8B41-BAAB-1744DD661610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="821">
   <si>
     <t>Screening</t>
   </si>
@@ -2520,6 +2520,9 @@
   </si>
   <si>
     <t>RATIONALE:&lt;usdm:ref element="study_rationale"/&gt;</t>
+  </si>
+  <si>
+    <t>IMAGE: &lt;usdm:ref image="references_test.png" type="png"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2761,13 +2764,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6514,7 +6517,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6650,6 +6653,9 @@
       </c>
       <c r="C13" s="6" t="s">
         <v>245</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7917,120 +7923,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8122,16 +8128,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11774,15 +11780,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11791,6 +11788,15 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11995,14 +12001,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12015,6 +12013,14 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3944A-A9A4-8B41-BAAB-1744DD661610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DFD53-B366-9A4D-8C5F-5DBF0E1567CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="61700" yWindow="500" windowWidth="40340" windowHeight="27240" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="823">
   <si>
     <t>Screening</t>
   </si>
@@ -2523,6 +2523,12 @@
   </si>
   <si>
     <t>IMAGE: &lt;usdm:ref image="references_test.png" type="png"/&gt;</t>
+  </si>
+  <si>
+    <t>POP: &lt;usdm:ref klass="StudyDesignPopulation" namexref="POP1" attribute="@plannedEnrollmentNumber/Range/maxValue"&gt;&lt;/usdm:ref&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The discontinuation rate associated with this oral dosing regimen was 58.6% in previous studies, and alternative clinical strategies have been sought to improve tolerance for the compound. To that end, development of a Transdermal Therapeutic System (TTS) has been initiated.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -3088,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3163,12 +3169,12 @@
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
     </row>
-    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>127</v>
+        <v>822</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
@@ -5250,7 +5256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -6516,8 +6522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6607,12 +6613,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>236</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>237</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DFD53-B366-9A4D-8C5F-5DBF0E1567CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE939E6-7DAC-674C-ADBF-67591D1D15CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61700" yWindow="500" windowWidth="40340" windowHeight="27240" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="61700" yWindow="500" windowWidth="40340" windowHeight="27240" firstSheet="12" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="827">
   <si>
     <t>Screening</t>
   </si>
@@ -2529,6 +2529,18 @@
   </si>
   <si>
     <t>&lt;p&gt;The discontinuation rate associated with this oral dosing regimen was 58.6% in previous studies, and alternative clinical strategies have been sought to improve tolerance for the compound. To that end, development of a Transdermal Therapeutic System (TTS) has been initiated.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:ref section="inclusion" template="m11"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:ref section="exclusion" template="m11"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:ref section="inclusionXXX" template="m11"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:ref section="inclusion" template="xxx"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2770,13 +2782,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3094,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6522,8 +6534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6694,7 +6706,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>252</v>
       </c>
@@ -6703,7 +6715,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>254</v>
       </c>
@@ -6712,7 +6724,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>256</v>
       </c>
@@ -6721,7 +6733,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>258</v>
       </c>
@@ -6730,7 +6742,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>260</v>
       </c>
@@ -6739,7 +6751,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>262</v>
       </c>
@@ -6748,7 +6760,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>264</v>
       </c>
@@ -6757,7 +6769,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>266</v>
       </c>
@@ -6765,8 +6777,11 @@
       <c r="C24" s="6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D24" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>268</v>
       </c>
@@ -6774,8 +6789,11 @@
       <c r="C25" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>270</v>
       </c>
@@ -6783,8 +6801,11 @@
       <c r="C26" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="D26" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>272</v>
       </c>
@@ -6792,8 +6813,11 @@
       <c r="C27" s="6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="D27" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>274</v>
       </c>
@@ -6802,7 +6826,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>276</v>
       </c>
@@ -6811,7 +6835,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>278</v>
       </c>
@@ -6820,7 +6844,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>280</v>
       </c>
@@ -6829,7 +6853,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>282</v>
       </c>
@@ -7932,120 +7956,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8137,16 +8161,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11789,6 +11813,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11797,15 +11830,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12010,6 +12034,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12022,14 +12054,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE939E6-7DAC-674C-ADBF-67591D1D15CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBA949B-F3D3-8347-9F4B-D829826AC09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61700" yWindow="500" windowWidth="40340" windowHeight="27240" firstSheet="12" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2531,16 +2531,16 @@
     <t>&lt;p&gt;The discontinuation rate associated with this oral dosing regimen was 58.6% in previous studies, and alternative clinical strategies have been sought to improve tolerance for the compound. To that end, development of a Transdermal Therapeutic System (TTS) has been initiated.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>SECTION: &lt;usdm:ref section="inclusion" template="m11"/&gt;</t>
-  </si>
-  <si>
-    <t>SECTION: &lt;usdm:ref section="exclusion" template="m11"/&gt;</t>
-  </si>
-  <si>
-    <t>SECTION: &lt;usdm:ref section="inclusionXXX" template="m11"/&gt;</t>
-  </si>
-  <si>
     <t>SECTION: &lt;usdm:ref section="inclusion" template="xxx"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:ref section="exclusion" template="M11Template"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:ref section="inclusion" template="M11Template"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:ref section="inclusionXXX" template="M11Template"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2782,13 +2782,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2808,9 +2808,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2848,7 +2848,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2954,7 +2954,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3096,7 +3096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6534,8 +6534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6778,7 +6778,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6802,7 +6802,7 @@
         <v>271</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6814,7 +6814,7 @@
         <v>273</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7956,120 +7956,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8161,16 +8161,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11813,15 +11813,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11830,6 +11821,15 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12034,14 +12034,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12054,6 +12046,14 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBA949B-F3D3-8347-9F4B-D829826AC09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03DC0DE-BD7D-4C4A-9324-B336D617BFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -2531,16 +2531,16 @@
     <t>&lt;p&gt;The discontinuation rate associated with this oral dosing regimen was 58.6% in previous studies, and alternative clinical strategies have been sought to improve tolerance for the compound. To that end, development of a Transdermal Therapeutic System (TTS) has been initiated.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>SECTION: &lt;usdm:ref section="exclusion" template="m11"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:ref section="inclusionXXX" template="m11"/&gt;</t>
+  </si>
+  <si>
     <t>SECTION: &lt;usdm:ref section="inclusion" template="xxx"/&gt;</t>
   </si>
   <si>
-    <t>SECTION: &lt;usdm:ref section="exclusion" template="M11Template"/&gt;</t>
-  </si>
-  <si>
-    <t>SECTION: &lt;usdm:ref section="inclusion" template="M11Template"/&gt;</t>
-  </si>
-  <si>
-    <t>SECTION: &lt;usdm:ref section="inclusionXXX" template="M11Template"/&gt;</t>
+    <t>SECTION: &lt;usdm:ref section="inclusion" template="M11"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -6535,7 +6535,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6778,7 +6778,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6790,7 +6790,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6802,7 +6802,7 @@
         <v>271</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6814,7 +6814,7 @@
         <v>273</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03DC0DE-BD7D-4C4A-9324-B336D617BFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290682CF-D3F7-F847-8ECA-22CB2EA34EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="5880" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2507,9 +2507,6 @@
     <t>@plannedAge/Range/minValue</t>
   </si>
   <si>
-    <t>TITLE: &lt;usdm:ref element="study_full_title"/&gt;&lt;br/&gt;ACRONYM: &lt;usdm:ref element="study_acronym"/&gt;</t>
-  </si>
-  <si>
     <t>SPONSOR ID: &lt;usdm:ref element="study_identifier"/&gt;</t>
   </si>
   <si>
@@ -2541,6 +2538,9 @@
   </si>
   <si>
     <t>SECTION: &lt;usdm:ref section="inclusion" template="M11"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:ref title_page="true"/&gt;&lt;usdm:ref table_of_contents="true"/&gt;TITLE: &lt;usdm:ref element="study_full_title"/&gt;&lt;br/&gt;ACRONYM: &lt;usdm:ref element="study_acronym"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2782,13 +2782,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2808,9 +2808,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2848,7 +2848,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2954,7 +2954,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3096,7 +3096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3186,7 +3186,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
@@ -6534,8 +6534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6560,7 +6560,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>494</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6581,7 +6581,7 @@
         <v>227</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6592,7 +6592,7 @@
         <v>229</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6603,7 +6603,7 @@
         <v>231</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6614,7 +6614,7 @@
         <v>233</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6633,7 +6633,7 @@
         <v>237</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6676,7 +6676,7 @@
         <v>245</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6778,7 +6778,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6790,7 +6790,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6802,7 +6802,7 @@
         <v>271</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6814,7 +6814,7 @@
         <v>273</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7956,120 +7956,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8161,16 +8161,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11813,6 +11813,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11821,15 +11830,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12034,6 +12034,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12046,14 +12054,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290682CF-D3F7-F847-8ECA-22CB2EA34EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5F969F-6F68-8948-BF77-D67C3980ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5F969F-6F68-8948-BF77-D67C3980ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A18C1-BBE2-7F43-B5C9-2A8B8FE83760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48760" yWindow="1200" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="829">
   <si>
     <t>Screening</t>
   </si>
@@ -2541,6 +2541,12 @@
   </si>
   <si>
     <t>&lt;usdm:ref title_page="true"/&gt;&lt;usdm:ref table_of_contents="true"/&gt;TITLE: &lt;usdm:ref element="study_full_title"/&gt;&lt;br/&gt;ACRONYM: &lt;usdm:ref element="study_acronym"/&gt;</t>
+  </si>
+  <si>
+    <t>APPendix 3</t>
+  </si>
+  <si>
+    <t>APPENDIX: Something</t>
   </si>
 </sst>
 </file>
@@ -2782,13 +2788,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6534,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7771,9 +7777,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>485</v>
+        <v>827</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -7956,120 +7965,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8161,16 +8170,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11822,17 +11831,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12033,6 +12031,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
@@ -12042,23 +12051,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12075,4 +12067,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A18C1-BBE2-7F43-B5C9-2A8B8FE83760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22E1F83-6AA4-A54E-81FD-CF3369D4DAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48760" yWindow="1200" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="27740" yWindow="800" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2507,24 +2507,6 @@
     <t>@plannedAge/Range/minValue</t>
   </si>
   <si>
-    <t>SPONSOR ID: &lt;usdm:ref element="study_identifier"/&gt;</t>
-  </si>
-  <si>
-    <t>INVALID: &lt;usdm:ref element="xxx"/&gt;</t>
-  </si>
-  <si>
-    <t>NONE:&lt;usdm:ref element="no_value_for_test"/&gt;</t>
-  </si>
-  <si>
-    <t>RATIONALE:&lt;usdm:ref element="study_rationale"/&gt;</t>
-  </si>
-  <si>
-    <t>IMAGE: &lt;usdm:ref image="references_test.png" type="png"/&gt;</t>
-  </si>
-  <si>
-    <t>POP: &lt;usdm:ref klass="StudyDesignPopulation" namexref="POP1" attribute="@plannedEnrollmentNumber/Range/maxValue"&gt;&lt;/usdm:ref&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;The discontinuation rate associated with this oral dosing regimen was 58.6% in previous studies, and alternative clinical strategies have been sought to improve tolerance for the compound. To that end, development of a Transdermal Therapeutic System (TTS) has been initiated.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2540,13 +2522,31 @@
     <t>SECTION: &lt;usdm:ref section="inclusion" template="M11"/&gt;</t>
   </si>
   <si>
-    <t>&lt;usdm:ref title_page="true"/&gt;&lt;usdm:ref table_of_contents="true"/&gt;TITLE: &lt;usdm:ref element="study_full_title"/&gt;&lt;br/&gt;ACRONYM: &lt;usdm:ref element="study_acronym"/&gt;</t>
-  </si>
-  <si>
     <t>APPendix 3</t>
   </si>
   <si>
     <t>APPENDIX: Something</t>
+  </si>
+  <si>
+    <t>TITLE: &lt;usdm:macro id="element" name="study_full_title"/&gt;&lt;br/&gt;ACRONYM: &lt;usdm:ref id="element" name="study_acronym"/&gt;</t>
+  </si>
+  <si>
+    <t>SPONSOR ID: &lt;usdm:ref id="element" name="study_identifier"/&gt;</t>
+  </si>
+  <si>
+    <t>INVALID: &lt;usdm:ref id="element" name="xxx"/&gt;</t>
+  </si>
+  <si>
+    <t>NONE:&lt;usdm:ref id="element" name="no_value_for_test"/&gt;</t>
+  </si>
+  <si>
+    <t>RATIONALE:&lt;usdm:ref id="element" name="study_rationale"/&gt;</t>
+  </si>
+  <si>
+    <t>POP: &lt;usdm:macro id="xref" klass="StudyDesignPopulation" name="POP1" attribute="@plannedEnrollmentNumber/Range/maxValue"&gt;&lt;/usdm:ref&gt;</t>
+  </si>
+  <si>
+    <t>IMAGE: &lt;usdm:rmacro id="image" file="references_test.png" type="png"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2788,13 +2788,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3192,7 +3192,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
@@ -6540,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6566,7 +6566,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>494</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6587,7 +6587,7 @@
         <v>227</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6598,7 +6598,7 @@
         <v>229</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6609,7 +6609,7 @@
         <v>231</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6620,7 +6620,7 @@
         <v>233</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6639,7 +6639,7 @@
         <v>237</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6682,7 +6682,7 @@
         <v>245</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6784,7 +6784,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6796,7 +6796,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6808,7 +6808,7 @@
         <v>271</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
         <v>273</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7779,10 +7779,10 @@
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -7965,120 +7965,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8170,16 +8170,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11822,15 +11822,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12031,6 +12022,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12043,14 +12043,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12065,6 +12057,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22E1F83-6AA4-A54E-81FD-CF3369D4DAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24DCBB5-5C14-6D4D-B095-5009D809CE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27740" yWindow="800" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -2510,43 +2510,43 @@
     <t>&lt;p&gt;The discontinuation rate associated with this oral dosing regimen was 58.6% in previous studies, and alternative clinical strategies have been sought to improve tolerance for the compound. To that end, development of a Transdermal Therapeutic System (TTS) has been initiated.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>SECTION: &lt;usdm:ref section="exclusion" template="m11"/&gt;</t>
-  </si>
-  <si>
-    <t>SECTION: &lt;usdm:ref section="inclusionXXX" template="m11"/&gt;</t>
-  </si>
-  <si>
-    <t>SECTION: &lt;usdm:ref section="inclusion" template="xxx"/&gt;</t>
-  </si>
-  <si>
-    <t>SECTION: &lt;usdm:ref section="inclusion" template="M11"/&gt;</t>
-  </si>
-  <si>
     <t>APPendix 3</t>
   </si>
   <si>
     <t>APPENDIX: Something</t>
   </si>
   <si>
-    <t>TITLE: &lt;usdm:macro id="element" name="study_full_title"/&gt;&lt;br/&gt;ACRONYM: &lt;usdm:ref id="element" name="study_acronym"/&gt;</t>
-  </si>
-  <si>
-    <t>SPONSOR ID: &lt;usdm:ref id="element" name="study_identifier"/&gt;</t>
-  </si>
-  <si>
-    <t>INVALID: &lt;usdm:ref id="element" name="xxx"/&gt;</t>
-  </si>
-  <si>
-    <t>NONE:&lt;usdm:ref id="element" name="no_value_for_test"/&gt;</t>
-  </si>
-  <si>
-    <t>RATIONALE:&lt;usdm:ref id="element" name="study_rationale"/&gt;</t>
-  </si>
-  <si>
     <t>POP: &lt;usdm:macro id="xref" klass="StudyDesignPopulation" name="POP1" attribute="@plannedEnrollmentNumber/Range/maxValue"&gt;&lt;/usdm:ref&gt;</t>
   </si>
   <si>
-    <t>IMAGE: &lt;usdm:rmacro id="image" file="references_test.png" type="png"/&gt;</t>
+    <t>TITLE: &lt;usdm:macro id="element" name="study_full_title"/&gt;&lt;br/&gt;ACRONYM: &lt;usdm:macro id="element" name="study_acronym"/&gt;</t>
+  </si>
+  <si>
+    <t>SPONSOR ID: &lt;usdm:macro id="element" name="study_identifier"/&gt;</t>
+  </si>
+  <si>
+    <t>INVALID: &lt;usdm:macro id="element" name="xxx"/&gt;</t>
+  </si>
+  <si>
+    <t>NONE:&lt;usdm:macro id="element" name="no_value_for_test"/&gt;</t>
+  </si>
+  <si>
+    <t>RATIONALE:&lt;usdm:macro id="element" name="study_rationale"/&gt;</t>
+  </si>
+  <si>
+    <t>IMAGE: &lt;usdm:macro id="image" file="references_test.png" type="png"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:macro id="section" name="inclusion" template="M11"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:macro id="section" name="exclusion" template="m11"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:macro id="section" name="inclusionXXX" template="m11"/&gt;</t>
+  </si>
+  <si>
+    <t>SECTION: &lt;usdm:macro id="section" name="inclusion" template="xxx"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2788,13 +2788,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6540,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6575,7 +6575,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6587,7 +6587,7 @@
         <v>227</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6598,7 +6598,7 @@
         <v>229</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6609,7 +6609,7 @@
         <v>231</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6620,7 +6620,7 @@
         <v>233</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6639,7 +6639,7 @@
         <v>237</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6682,7 +6682,7 @@
         <v>245</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6784,7 +6784,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6796,7 +6796,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6808,7 +6808,7 @@
         <v>271</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
         <v>273</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7779,10 +7779,10 @@
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -7965,120 +7965,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8170,16 +8170,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11822,6 +11822,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12022,15 +12031,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12043,6 +12043,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12057,14 +12065,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24DCBB5-5C14-6D4D-B095-5009D809CE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C3DE14-F274-644E-AB76-51DD8723EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27740" yWindow="800" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="27740" yWindow="800" windowWidth="51600" windowHeight="20220" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="832">
   <si>
     <t>Screening</t>
   </si>
@@ -1820,9 +1820,6 @@
   </si>
   <si>
     <t>The study age criterion</t>
-  </si>
-  <si>
-    <t>Subjects shall be between [min_age] and [max_age]</t>
   </si>
   <si>
     <t>IE_Dict</t>
@@ -2159,9 +2156,6 @@
     <t>The study population criterion</t>
   </si>
   <si>
-    <t>[StudyPopulation] as defined by the NINCDS and the ADRDA guidelines (Attachment LZZT.7)</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -2171,9 +2165,6 @@
     <t>The study diagnosis criterion</t>
   </si>
   <si>
-    <t>[Activity1] score of 10 to 23</t>
-  </si>
-  <si>
     <t>Exclusion</t>
   </si>
   <si>
@@ -2547,6 +2538,24 @@
   </si>
   <si>
     <t>SECTION: &lt;usdm:macro id="section" name="inclusion" template="xxx"/&gt;</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>code_name</t>
+  </si>
+  <si>
+    <t>Cyclops</t>
+  </si>
+  <si>
+    <t>Subjects shall be between &lt;usdm:tag name="min_age"/&gt; and &lt;usdm:tag name="max_age"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:tag name="StudyPopulation"/&gt; as defined by the NINCDS and the ADRDA guidelines (Attachment LZZT.7)</t>
+  </si>
+  <si>
+    <t>&lt;usdm:tag name="Activity1"/&gt; score of 10 to 23</t>
   </si>
 </sst>
 </file>
@@ -3192,7 +3201,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
@@ -3297,7 +3306,7 @@
         <v>500</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C17" t="s">
         <v>501</v>
@@ -3320,7 +3329,7 @@
         <v>504</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C18" t="s">
         <v>505</v>
@@ -3366,13 +3375,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3380,7 +3389,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3394,13 +3403,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>497</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,7 +3429,7 @@
         <v>551</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3468,7 +3477,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>202</v>
@@ -3513,7 +3522,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3532,7 +3541,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3542,7 +3551,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3604,10 +3613,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3793,22 +3802,22 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>713</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3816,7 +3825,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3828,22 +3837,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>497</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3872,16 +3881,16 @@
         <v>551</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>713</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3919,10 +3928,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3931,10 +3940,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3943,10 +3952,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3955,10 +3964,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4159,7 +4168,7 @@
         <v>539</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>535</v>
@@ -4225,7 +4234,7 @@
         <v>546</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>141</v>
@@ -4240,7 +4249,7 @@
         <v>539</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>535</v>
@@ -4254,7 +4263,7 @@
         <v>548</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>142</v>
@@ -4269,7 +4278,7 @@
         <v>539</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>535</v>
@@ -4283,7 +4292,7 @@
         <v>568</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>150</v>
@@ -4298,7 +4307,7 @@
         <v>539</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>535</v>
@@ -4312,7 +4321,7 @@
         <v>569</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>206</v>
@@ -4327,7 +4336,7 @@
         <v>539</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>535</v>
@@ -4341,22 +4350,22 @@
         <v>570</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>560</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>535</v>
@@ -4367,7 +4376,7 @@
         <v>571</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>151</v>
@@ -4382,13 +4391,13 @@
         <v>539</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>535</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4396,22 +4405,22 @@
         <v>572</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>561</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>535</v>
@@ -4422,7 +4431,7 @@
         <v>573</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>152</v>
@@ -4437,13 +4446,13 @@
         <v>539</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>535</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4451,22 +4460,22 @@
         <v>574</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>562</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>535</v>
@@ -4477,7 +4486,7 @@
         <v>575</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>153</v>
@@ -4492,13 +4501,13 @@
         <v>539</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>535</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4506,22 +4515,22 @@
         <v>576</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>563</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>535</v>
@@ -4533,7 +4542,7 @@
         <v>577</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>154</v>
@@ -4548,13 +4557,13 @@
         <v>539</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>535</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -4562,7 +4571,7 @@
         <v>578</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>155</v>
@@ -4571,13 +4580,13 @@
         <v>547</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>539</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>535</v>
@@ -4591,19 +4600,19 @@
         <v>579</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>544</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>545</v>
@@ -4615,19 +4624,19 @@
         <v>580</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>544</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>545</v>
@@ -4635,50 +4644,50 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>544</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>535</v>
@@ -4687,57 +4696,57 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4775,10 +4784,10 @@
         <v>497</v>
       </c>
       <c r="D1" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>632</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4806,18 +4815,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4852,10 +4861,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C14" t="s">
         <v>634</v>
-      </c>
-      <c r="C14" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4905,7 +4914,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4915,10 +4924,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4953,39 +4962,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C34" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C35" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C36" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C37" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -5039,167 +5048,167 @@
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>763</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>771</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>772</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>773</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D2" t="s">
         <v>775</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>776</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="49" t="s">
         <v>777</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>778</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>779</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="I2" t="s">
         <v>780</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>781</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>782</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>783</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>784</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>785</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>786</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>787</v>
-      </c>
-      <c r="N2" t="s">
-        <v>788</v>
-      </c>
-      <c r="O2" t="s">
-        <v>789</v>
-      </c>
-      <c r="P2" t="s">
-        <v>790</v>
       </c>
       <c r="Q2" t="s">
         <v>518</v>
       </c>
       <c r="R2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E3" t="s">
         <v>793</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="G3" t="s">
+        <v>778</v>
+      </c>
+      <c r="H3" t="s">
         <v>794</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>780</v>
+      </c>
+      <c r="J3" t="s">
         <v>795</v>
       </c>
-      <c r="D3" t="s">
-        <v>778</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>796</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="G3" t="s">
-        <v>781</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>797</v>
       </c>
-      <c r="I3" t="s">
-        <v>783</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>784</v>
+      </c>
+      <c r="N3" t="s">
+        <v>785</v>
+      </c>
+      <c r="O3" t="s">
+        <v>786</v>
+      </c>
+      <c r="P3" t="s">
         <v>798</v>
-      </c>
-      <c r="K3" t="s">
-        <v>799</v>
-      </c>
-      <c r="L3" t="s">
-        <v>800</v>
-      </c>
-      <c r="M3" t="s">
-        <v>787</v>
-      </c>
-      <c r="N3" t="s">
-        <v>788</v>
-      </c>
-      <c r="O3" t="s">
-        <v>789</v>
-      </c>
-      <c r="P3" t="s">
-        <v>801</v>
       </c>
       <c r="Q3" t="s">
         <v>518</v>
       </c>
       <c r="R3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -5241,13 +5250,13 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5255,13 +5264,13 @@
         <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -5292,7 +5301,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>223</v>
@@ -5304,13 +5313,13 @@
         <v>497</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5318,13 +5327,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5333,7 +5342,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5370,34 +5379,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5410,11 +5419,11 @@
         <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>47</v>
@@ -5456,10 +5465,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>47</v>
@@ -5518,11 +5527,11 @@
         <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
@@ -5871,25 +5880,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -5953,7 +5962,7 @@
         <v>520</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -5995,10 +6004,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>630</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>631</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>95</v>
@@ -6030,7 +6039,7 @@
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6159,7 +6168,7 @@
         <v>138</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6179,7 +6188,7 @@
         <v>138</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6199,7 +6208,7 @@
         <v>138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6219,7 +6228,7 @@
         <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6359,7 +6368,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>180</v>
@@ -6373,7 +6382,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>186</v>
@@ -6387,7 +6396,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>188</v>
@@ -6401,7 +6410,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>190</v>
@@ -6418,10 +6427,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6434,7 +6443,7 @@
     <col min="7" max="7" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>223</v>
       </c>
@@ -6445,90 +6454,101 @@
         <v>497</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>590</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>592</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>593</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>594</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>595</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
         <v>596</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>597</v>
-      </c>
       <c r="E3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F3" t="s">
         <v>595</v>
       </c>
-      <c r="F3" t="s">
-        <v>596</v>
-      </c>
       <c r="G3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F4" t="s">
         <v>595</v>
-      </c>
-      <c r="F4" t="s">
-        <v>596</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B5" t="s">
         <v>690</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>691</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>692</v>
-      </c>
-      <c r="D5" t="s">
-        <v>693</v>
       </c>
       <c r="E5" t="s">
         <v>566</v>
       </c>
       <c r="F5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G5" t="s">
-        <v>810</v>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>827</v>
+      </c>
+      <c r="H6" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -6540,7 +6560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -6575,7 +6595,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6587,7 +6607,7 @@
         <v>227</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6598,7 +6618,7 @@
         <v>229</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6609,7 +6629,7 @@
         <v>231</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6620,7 +6640,7 @@
         <v>233</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6639,7 +6659,7 @@
         <v>237</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6682,7 +6702,7 @@
         <v>245</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6784,7 +6804,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6796,7 +6816,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6808,7 +6828,7 @@
         <v>271</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6820,7 +6840,7 @@
         <v>273</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7779,10 +7799,10 @@
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -7916,7 +7936,7 @@
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7990,7 +8010,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -8038,7 +8058,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
@@ -8074,7 +8094,7 @@
         <v>81</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
@@ -8110,7 +8130,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>115</v>
@@ -8191,8 +8211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8202,7 +8222,7 @@
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" style="14" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="79" style="16" customWidth="1"/>
+    <col min="6" max="6" width="92.33203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
@@ -8243,30 +8263,30 @@
         <v>586</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>583</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>698</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>699</v>
+        <v>830</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8274,36 +8294,36 @@
         <v>583</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>702</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>703</v>
+        <v>831</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="D5" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>708</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8311,7 +8331,7 @@
         <v>583</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>585</v>
@@ -8320,10 +8340,10 @@
         <v>586</v>
       </c>
       <c r="F6" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>587</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -8362,10 +8382,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>614</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8485,7 +8505,7 @@
         <v>215</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>133</v>
@@ -8499,7 +8519,7 @@
         <v>215</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>133</v>
@@ -8513,7 +8533,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>133</v>
@@ -8598,31 +8618,31 @@
         <v>560</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>561</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>562</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>563</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>564</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -8695,10 +8715,10 @@
         <v>497</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>565</v>
@@ -8716,25 +8736,25 @@
         <v>206</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>154</v>
@@ -8823,31 +8843,31 @@
         <v>560</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>561</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>562</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>563</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>564</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>567</v>
@@ -9204,7 +9224,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9259,7 +9279,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9644,10 +9664,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9924,7 +9944,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10091,7 +10111,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10200,7 +10220,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10312,7 +10332,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -11106,13 +11126,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -11120,7 +11140,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11134,13 +11154,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>497</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11160,7 +11180,7 @@
         <v>551</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C3DE14-F274-644E-AB76-51DD8723EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A889917-B0BC-9A4A-949A-9B5FB09695EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27740" yWindow="800" windowWidth="51600" windowHeight="20220" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2797,13 +2797,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6560,7 +6560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -7985,120 +7985,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>809</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8190,16 +8190,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8211,8 +8211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11842,15 +11842,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12051,6 +12042,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12063,14 +12063,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12085,6 +12077,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A889917-B0BC-9A4A-949A-9B5FB09695EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A64700-94D7-E442-8695-FE74EAD983A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="833">
   <si>
     <t>Screening</t>
   </si>
@@ -2556,6 +2556,9 @@
   </si>
   <si>
     <t>&lt;usdm:tag name="Activity1"/&gt; score of 10 to 23</t>
+  </si>
+  <si>
+    <t>SOA: &lt;usdm:macro id="section" name="soa"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2797,13 +2800,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6560,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6705,13 +6708,16 @@
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>246</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
         <v>247</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7985,120 +7991,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>809</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8190,16 +8196,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8211,7 +8217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
@@ -12043,15 +12049,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -12060,6 +12057,15 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12082,14 +12088,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12104,4 +12102,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A64700-94D7-E442-8695-FE74EAD983A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F53AEB-4EE7-7D42-A764-CE54585B3070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="6" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="833">
   <si>
     <t>Screening</t>
   </si>
@@ -2800,13 +2800,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3360,7 +3360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56A288-0987-894C-9A05-ED744F64679C}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -3789,7 +3789,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4763,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4797,16 +4797,25 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>158</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -4836,31 +4845,49 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>160</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -4874,56 +4901,89 @@
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>166</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>638</v>
       </c>
+      <c r="C24" s="6" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>168</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -4937,34 +4997,55 @@
       <c r="A27" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="C28" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="C29" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>682</v>
+      </c>
+      <c r="C33" t="s">
         <v>682</v>
       </c>
     </row>
@@ -6563,7 +6644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -7991,120 +8072,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>809</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8196,16 +8277,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11848,6 +11929,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12048,17 +12140,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12069,6 +12150,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12087,23 +12185,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F53AEB-4EE7-7D42-A764-CE54585B3070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3572C1-9092-3441-9767-9E9FAB24A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="6" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="56040" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="7" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="832">
   <si>
     <t>Screening</t>
   </si>
@@ -2390,18 +2390,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -2441,12 +2435,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -2559,6 +2547,15 @@
   </si>
   <si>
     <t>SOA: &lt;usdm:macro id="section" name="soa"/&gt;</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2800,13 +2797,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3204,7 +3201,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
@@ -4723,7 +4720,7 @@
         <v>739</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -4763,7 +4760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:A37"/>
     </sheetView>
   </sheetViews>
@@ -5090,8 +5087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5191,108 +5188,108 @@
         <v>775</v>
       </c>
       <c r="E2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>776</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" t="s">
         <v>777</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>830</v>
+      </c>
+      <c r="I2" t="s">
         <v>778</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>779</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>780</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>781</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>782</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>783</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>784</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>785</v>
-      </c>
-      <c r="O2" t="s">
-        <v>786</v>
-      </c>
-      <c r="P2" t="s">
-        <v>787</v>
       </c>
       <c r="Q2" t="s">
         <v>518</v>
       </c>
       <c r="R2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C3" t="s">
         <v>790</v>
-      </c>
-      <c r="B3" t="s">
-        <v>791</v>
-      </c>
-      <c r="C3" t="s">
-        <v>792</v>
       </c>
       <c r="D3" t="s">
         <v>775</v>
       </c>
       <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="G3" t="s">
+        <v>777</v>
+      </c>
+      <c r="H3" t="s">
+        <v>831</v>
+      </c>
+      <c r="I3" t="s">
+        <v>778</v>
+      </c>
+      <c r="J3" t="s">
+        <v>791</v>
+      </c>
+      <c r="K3" t="s">
+        <v>792</v>
+      </c>
+      <c r="L3" t="s">
         <v>793</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>777</v>
-      </c>
-      <c r="G3" t="s">
-        <v>778</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>782</v>
+      </c>
+      <c r="N3" t="s">
+        <v>783</v>
+      </c>
+      <c r="O3" t="s">
+        <v>784</v>
+      </c>
+      <c r="P3" t="s">
         <v>794</v>
-      </c>
-      <c r="I3" t="s">
-        <v>780</v>
-      </c>
-      <c r="J3" t="s">
-        <v>795</v>
-      </c>
-      <c r="K3" t="s">
-        <v>796</v>
-      </c>
-      <c r="L3" t="s">
-        <v>797</v>
-      </c>
-      <c r="M3" t="s">
-        <v>784</v>
-      </c>
-      <c r="N3" t="s">
-        <v>785</v>
-      </c>
-      <c r="O3" t="s">
-        <v>786</v>
-      </c>
-      <c r="P3" t="s">
-        <v>798</v>
       </c>
       <c r="Q3" t="s">
         <v>518</v>
       </c>
       <c r="R3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -5385,7 +5382,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>223</v>
@@ -5397,13 +5394,13 @@
         <v>497</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>801</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>805</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5411,13 +5408,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>595</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5426,7 +5423,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -6550,7 +6547,7 @@
         <v>590</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6573,7 +6570,7 @@
         <v>595</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -6587,7 +6584,7 @@
         <v>595</v>
       </c>
       <c r="G3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6624,15 +6621,15 @@
         <v>693</v>
       </c>
       <c r="G5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H6" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -6679,7 +6676,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6691,7 +6688,7 @@
         <v>227</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6702,7 +6699,7 @@
         <v>229</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6713,7 +6710,7 @@
         <v>231</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6724,7 +6721,7 @@
         <v>233</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6743,7 +6740,7 @@
         <v>237</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6786,7 +6783,7 @@
         <v>245</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6798,7 +6795,7 @@
         <v>247</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6891,7 +6888,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6903,7 +6900,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6915,7 +6912,7 @@
         <v>271</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6927,7 +6924,7 @@
         <v>273</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7886,10 +7883,10 @@
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -8072,120 +8069,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>809</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="B3" s="52" t="s">
+        <v>805</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8277,16 +8274,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8350,7 +8347,7 @@
         <v>586</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>587</v>
@@ -8370,7 +8367,7 @@
         <v>697</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>587</v>
@@ -8390,7 +8387,7 @@
         <v>700</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>689</v>
@@ -8418,7 +8415,7 @@
         <v>583</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>585</v>
@@ -8427,7 +8424,7 @@
         <v>586</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>587</v>
@@ -11929,17 +11926,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12140,6 +12126,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12150,23 +12147,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12185,6 +12165,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3572C1-9092-3441-9767-9E9FAB24A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746A7665-7DC9-CB4F-BAA8-0BCA74E1C97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56040" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="7" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="833">
   <si>
     <t>Screening</t>
   </si>
@@ -2556,6 +2556,9 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>NOTE: &lt;usdm:macro id="note" text="This is a note!"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2797,13 +2800,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5087,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H3"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6641,8 +6644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6814,6 +6817,9 @@
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
         <v>251</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8069,120 +8075,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>805</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8274,16 +8280,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11926,6 +11932,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12126,17 +12143,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12147,6 +12153,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12165,23 +12188,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746A7665-7DC9-CB4F-BAA8-0BCA74E1C97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E31722-6D42-EF41-BD06-B7254AA9E17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="3" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -25,18 +25,19 @@
     <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId10"/>
     <sheet name="vsBloodPressure" sheetId="24" r:id="rId11"/>
     <sheet name="studyDesignTiming" sheetId="18" r:id="rId12"/>
-    <sheet name="studyDesignActivities" sheetId="21" r:id="rId13"/>
-    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId14"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId15"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId16"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId17"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId18"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId19"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId20"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId21"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId22"/>
-    <sheet name="studyDesignContent" sheetId="16" r:id="rId23"/>
-    <sheet name="configuration" sheetId="10" r:id="rId24"/>
+    <sheet name="studyDesignConditions" sheetId="26" r:id="rId13"/>
+    <sheet name="studyDesignActivities" sheetId="21" r:id="rId14"/>
+    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId15"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId16"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId17"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId18"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId19"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId20"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId21"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId22"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId23"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId24"/>
+    <sheet name="configuration" sheetId="10" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="844">
   <si>
     <t>Screening</t>
   </si>
@@ -2559,6 +2560,39 @@
   </si>
   <si>
     <t>NOTE: &lt;usdm:macro id="note" text="This is a note!"/&gt;</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>appliesTo</t>
+  </si>
+  <si>
+    <t>COND1</t>
+  </si>
+  <si>
+    <t>Hemoglobin A&lt;sup&gt;1C&lt;/sup&gt; and insulin-dependent subjects</t>
+  </si>
+  <si>
+    <t>HA1C</t>
+  </si>
+  <si>
+    <t>Performed if patient is an insulin-dependent diabetic</t>
+  </si>
+  <si>
+    <t>COND2</t>
+  </si>
+  <si>
+    <t>Questionnaire practice condition</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Practice only - It is recommended that a sampling of the CIBIC+, ADAS-Cog, DAD, and NPI-X be administered at Visit 1. Data from this sampling would not be considered as study data and would not be collected.</t>
+  </si>
+  <si>
+    <t>ADAS-Cog, CIBIC+, DAD, NPI-X</t>
   </si>
 </sst>
 </file>
@@ -2800,13 +2834,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4760,6 +4794,257 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B71E94-B17A-A74A-ACEE-31EA293881F6}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="51" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -5086,7 +5371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -5300,7 +5585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5363,7 +5648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -5438,7 +5723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -5850,7 +6135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -5892,97 +6177,6 @@
       </c>
       <c r="H1" s="12" t="s">
         <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="24" style="20" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>741</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="31" t="s">
-        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -6055,6 +6249,97 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="24" style="20" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="31" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -6365,7 +6650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -6509,7 +6794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -6640,12 +6925,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7926,7 +8211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8075,120 +8360,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>805</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8280,16 +8565,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8652,7 +8937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
@@ -11932,17 +12217,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12143,6 +12417,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12153,23 +12438,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12188,6 +12456,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E31722-6D42-EF41-BD06-B7254AA9E17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE549CE6-89FB-4042-802D-6BC1068698CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="3" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE549CE6-89FB-4042-802D-6BC1068698CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BA4304-ABAC-5546-8E88-8EB7B442F175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="3" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="10" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -203,12 +203,6 @@
     <t>Primary Endpoint</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
-  </si>
-  <si>
     <t>Secondary Endpoint</t>
   </si>
   <si>
@@ -2593,6 +2587,12 @@
   </si>
   <si>
     <t>ADAS-Cog, CIBIC+, DAD, NPI-X</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2834,13 +2834,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2860,9 +2860,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2900,7 +2900,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3006,7 +3006,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3148,7 +3148,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3175,10 +3175,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3188,7 +3188,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3198,7 +3198,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3218,74 +3218,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="14"/>
       <c r="E12" s="41"/>
@@ -3293,20 +3293,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -3317,71 +3317,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="C17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" t="s">
         <v>500</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>501</v>
-      </c>
-      <c r="D17" t="s">
-        <v>502</v>
-      </c>
-      <c r="E17" t="s">
-        <v>503</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="C18" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" t="s">
         <v>504</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>750</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>505</v>
-      </c>
-      <c r="D18" t="s">
-        <v>506</v>
-      </c>
-      <c r="E18" t="s">
-        <v>507</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -3409,24 +3409,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3456,38 +3456,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3498,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3514,10 +3514,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3568,7 +3568,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -3578,7 +3578,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3588,7 +3588,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3598,7 +3598,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -3610,7 +3610,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -3620,7 +3620,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -3630,7 +3630,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -3640,7 +3640,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -3650,10 +3650,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3836,33 +3836,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3871,25 +3871,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3899,56 +3899,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3959,16 +3959,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3977,10 +3977,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3989,10 +3989,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -4001,10 +4001,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4158,632 +4158,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>528</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4813,62 +4813,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>838</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>841</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5063,19 +5063,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5096,10 +5096,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5112,18 +5112,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5144,58 +5144,58 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5208,18 +5208,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5248,74 +5248,74 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5328,42 +5328,42 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C34" t="s">
         <v>729</v>
-      </c>
-      <c r="C34" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C35" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C36" t="s">
         <v>730</v>
-      </c>
-      <c r="C36" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C37" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -5405,179 +5405,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>760</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>761</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>763</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>769</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>770</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" t="s">
         <v>772</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>773</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>775</v>
       </c>
-      <c r="E2" t="s">
-        <v>829</v>
-      </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" t="s">
+        <v>828</v>
+      </c>
+      <c r="I2" t="s">
         <v>776</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>777</v>
       </c>
-      <c r="H2" t="s">
-        <v>830</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>778</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>779</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>780</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>781</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>782</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>783</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>516</v>
+      </c>
+      <c r="R2" t="s">
         <v>784</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="50" t="s">
         <v>785</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>518</v>
-      </c>
-      <c r="R2" t="s">
-        <v>786</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C3" t="s">
         <v>788</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="G3" t="s">
+        <v>775</v>
+      </c>
+      <c r="H3" t="s">
+        <v>829</v>
+      </c>
+      <c r="I3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J3" t="s">
         <v>789</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>790</v>
       </c>
-      <c r="D3" t="s">
-        <v>775</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>776</v>
-      </c>
-      <c r="G3" t="s">
-        <v>777</v>
-      </c>
-      <c r="H3" t="s">
-        <v>831</v>
-      </c>
-      <c r="I3" t="s">
-        <v>778</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>791</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>780</v>
+      </c>
+      <c r="N3" t="s">
+        <v>781</v>
+      </c>
+      <c r="O3" t="s">
+        <v>782</v>
+      </c>
+      <c r="P3" t="s">
         <v>792</v>
       </c>
-      <c r="L3" t="s">
-        <v>793</v>
-      </c>
-      <c r="M3" t="s">
-        <v>782</v>
-      </c>
-      <c r="N3" t="s">
-        <v>783</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>516</v>
+      </c>
+      <c r="R3" t="s">
         <v>784</v>
       </c>
-      <c r="P3" t="s">
-        <v>794</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>518</v>
-      </c>
-      <c r="R3" t="s">
-        <v>786</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -5602,13 +5602,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -5616,30 +5616,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="C2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>755</v>
-      </c>
-      <c r="C3" t="s">
-        <v>756</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -5670,25 +5670,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5696,13 +5696,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5711,7 +5711,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5727,8 +5727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5748,34 +5748,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>599</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>601</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>600</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>602</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5785,24 +5785,24 @@
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>47</v>
+        <v>842</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -5815,11 +5815,11 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -5831,19 +5831,19 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>10</v>
@@ -5859,10 +5859,10 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
@@ -5875,13 +5875,13 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
@@ -5893,28 +5893,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>843</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -5922,15 +5922,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -5938,14 +5938,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -6155,28 +6155,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6205,22 +6205,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>514</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6228,19 +6228,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>520</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -6270,67 +6270,67 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -6361,286 +6361,286 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6669,27 +6669,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -6698,94 +6698,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>189</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6814,76 +6814,76 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>590</v>
-      </c>
       <c r="H1" s="21" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
         <v>591</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>592</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>593</v>
       </c>
-      <c r="E2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F2" t="s">
-        <v>595</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -6891,33 +6891,33 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C5" t="s">
         <v>689</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>690</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F5" t="s">
         <v>691</v>
       </c>
-      <c r="D5" t="s">
-        <v>692</v>
-      </c>
-      <c r="E5" t="s">
-        <v>566</v>
-      </c>
-      <c r="F5" t="s">
-        <v>693</v>
-      </c>
       <c r="G5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -6943,1266 +6943,1266 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>223</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -8224,34 +8224,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8299,36 +8299,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
         <v>521</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>522</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>523</v>
-      </c>
-      <c r="D3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -8358,122 +8358,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+        <v>120</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+        <v>122</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>805</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="53" t="s">
+        <v>803</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>681</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+        <v>78</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>706</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+        <v>79</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8485,96 +8485,96 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>121</v>
-      </c>
       <c r="E15" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8603,122 +8603,122 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>585</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>825</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>693</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>696</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>697</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>700</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>701</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>702</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>802</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>804</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>585</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>825</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -8745,82 +8745,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8846,13 +8846,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8860,72 +8860,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8937,7 +8937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
@@ -8963,69 +8963,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>624</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -9081,61 +9081,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -9145,121 +9145,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>626</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -9268,101 +9268,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -9373,7 +9373,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -9489,7 +9489,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -9599,7 +9599,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9654,7 +9654,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9819,7 +9819,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -9874,7 +9874,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -9929,7 +9929,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -9984,7 +9984,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -10039,10 +10039,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -10096,7 +10096,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -10151,7 +10151,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -10261,7 +10261,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -10316,10 +10316,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10486,7 +10486,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10540,7 +10540,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -10595,7 +10595,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10650,10 +10650,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -10707,7 +10707,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10762,7 +10762,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -10819,7 +10819,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -10874,7 +10874,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -10929,7 +10929,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -10984,7 +10984,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -11498,24 +11498,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11526,16 +11526,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11545,38 +11545,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -11587,7 +11587,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -11596,7 +11596,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -12418,6 +12418,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -12426,15 +12435,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12457,6 +12457,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12471,12 +12479,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BA4304-ABAC-5546-8E88-8EB7B442F175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933463B9-CD42-FA44-A1BC-AEB1812848C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="10" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="845">
   <si>
     <t>Screening</t>
   </si>
@@ -2593,6 +2593,9 @@
   </si>
   <si>
     <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>Age Criteria 2</t>
   </si>
 </sst>
 </file>
@@ -2834,13 +2837,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5727,7 +5730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -8360,120 +8363,120 @@
       <c r="A1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>803</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>679</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>704</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8565,16 +8568,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8586,8 +8589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8709,7 +8712,7 @@
         <v>802</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>583</v>
+        <v>844</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>584</v>
@@ -12418,15 +12421,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -12435,6 +12429,15 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12457,14 +12460,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12479,4 +12474,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933463B9-CD42-FA44-A1BC-AEB1812848C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349FA124-0495-7941-B3F4-46943E0B82AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="56020" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="845">
   <si>
     <t>Screening</t>
   </si>
@@ -2837,13 +2837,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3398,7 +3398,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3609,9 +3609,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>168</v>
       </c>
@@ -8363,120 +8361,120 @@
       <c r="A1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>803</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>704</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8568,16 +8566,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8589,7 +8587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8940,8 +8938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10818,9 +10816,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
         <v>168</v>
       </c>
@@ -12421,6 +12417,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -12429,15 +12434,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12460,6 +12456,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12474,12 +12478,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9597DFE-45BC-DB4A-A57C-0A32F875B1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1292BEC4-BA1A-EB4B-9D45-2110D75AFC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51660" yWindow="500" windowWidth="49620" windowHeight="26960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="49620" windowHeight="26960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -1762,9 +1762,6 @@
     <t>NCI_7</t>
   </si>
   <si>
-    <t>POP: &lt;usdm:macro id="xref" klass="StudyDesignPopulation" name="POP1" attribute="@plannedEnrollmentNumber/Range/maxValue"&gt;&lt;/usdm:ref&gt;</t>
-  </si>
-  <si>
     <t>NCI_8</t>
   </si>
   <si>
@@ -3425,6 +3422,9 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>POP: &lt;usdm:macro id="xref" klass="StudyDesignPopulation" name="POP1" attribute="@plannedEnrollmentNumberQuantity/Quantity/value"&gt;&lt;/usdm:ref&gt;</t>
   </si>
 </sst>
 </file>
@@ -7320,7 +7320,7 @@
         <v>470</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>471</v>
@@ -7338,7 +7338,7 @@
         <v>473</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -8144,683 +8144,683 @@
         <v>570</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>571</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>575</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="36" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="36" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="36" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="36" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -8850,36 +8850,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>710</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="24" t="s">
         <v>711</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="35" t="s">
         <v>712</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>713</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>715</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" t="s">
         <v>716</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>718</v>
-      </c>
       <c r="E2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F2" t="s">
         <v>559</v>
@@ -8887,16 +8887,16 @@
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>720</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>721</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
@@ -8907,16 +8907,16 @@
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>723</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>724</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
@@ -8927,16 +8927,16 @@
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>727</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
@@ -8947,16 +8947,16 @@
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>730</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -8976,7 +8976,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
@@ -8987,16 +8987,16 @@
     </row>
     <row r="8" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
@@ -9007,2527 +9007,2527 @@
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>738</v>
-      </c>
       <c r="E9" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>738</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>741</v>
-      </c>
       <c r="E10" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>742</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>744</v>
-      </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>744</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>747</v>
-      </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>747</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>750</v>
-      </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>750</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>753</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>756</v>
-      </c>
       <c r="E15" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>759</v>
-      </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>759</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>762</v>
-      </c>
       <c r="E17" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>762</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>765</v>
-      </c>
       <c r="E18" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>765</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>768</v>
-      </c>
       <c r="E19" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>768</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>771</v>
-      </c>
       <c r="E20" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>771</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>774</v>
-      </c>
       <c r="E21" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>777</v>
-      </c>
       <c r="E22" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>777</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>780</v>
-      </c>
       <c r="E23" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>780</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>783</v>
-      </c>
       <c r="E24" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>783</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>786</v>
-      </c>
       <c r="E25" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>786</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>789</v>
-      </c>
       <c r="E26" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>789</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>792</v>
-      </c>
       <c r="E27" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>792</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>795</v>
-      </c>
       <c r="E28" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>795</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>798</v>
-      </c>
       <c r="E29" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>798</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>801</v>
-      </c>
       <c r="E30" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>801</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>804</v>
-      </c>
       <c r="E31" t="s">
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>804</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>807</v>
-      </c>
       <c r="E32" t="s">
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>807</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>810</v>
-      </c>
       <c r="E33" t="s">
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>810</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>813</v>
-      </c>
       <c r="E34" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>813</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>816</v>
-      </c>
       <c r="E35" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>816</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>819</v>
-      </c>
       <c r="E36" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>819</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>822</v>
-      </c>
       <c r="E37" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>822</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>825</v>
-      </c>
       <c r="E38" t="s">
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>825</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>828</v>
-      </c>
       <c r="E39" t="s">
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>828</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>831</v>
-      </c>
       <c r="E40" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>831</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>834</v>
-      </c>
       <c r="E41" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>834</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>837</v>
-      </c>
       <c r="E42" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>837</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>840</v>
-      </c>
       <c r="E43" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>840</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>843</v>
-      </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>843</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>846</v>
-      </c>
       <c r="E45" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>846</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>849</v>
-      </c>
       <c r="E46" t="s">
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>849</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>852</v>
-      </c>
       <c r="E47" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>852</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>855</v>
-      </c>
       <c r="E48" t="s">
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>855</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="C49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>858</v>
-      </c>
       <c r="E49" t="s">
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>858</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>859</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>861</v>
-      </c>
       <c r="E50" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>861</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>862</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>864</v>
-      </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>864</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="C52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>867</v>
-      </c>
       <c r="E52" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>867</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>870</v>
-      </c>
       <c r="E53" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>870</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="C54" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>873</v>
-      </c>
       <c r="E54" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>873</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>874</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>876</v>
-      </c>
       <c r="E55" t="s">
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>876</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="C56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>879</v>
-      </c>
       <c r="E56" t="s">
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>879</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>882</v>
-      </c>
       <c r="E57" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>882</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>885</v>
-      </c>
       <c r="E58" t="s">
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>885</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>888</v>
-      </c>
       <c r="E59" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>888</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>891</v>
-      </c>
       <c r="E60" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="C61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>894</v>
-      </c>
       <c r="E61" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>894</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>897</v>
-      </c>
       <c r="E62" t="s">
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>897</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="C63" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>900</v>
-      </c>
       <c r="E63" t="s">
         <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>900</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="C64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>903</v>
-      </c>
       <c r="E64" t="s">
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>903</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="C65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>906</v>
-      </c>
       <c r="E65" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>906</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>909</v>
-      </c>
       <c r="E66" t="s">
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>909</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="C67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>912</v>
-      </c>
       <c r="E67" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>912</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="C68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>915</v>
-      </c>
       <c r="E68" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>915</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="C69" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>918</v>
-      </c>
       <c r="E69" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>918</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="C70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>921</v>
-      </c>
       <c r="E70" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>921</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>924</v>
-      </c>
       <c r="E71" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>924</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="C72" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>927</v>
-      </c>
       <c r="E72" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>927</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="C73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>930</v>
-      </c>
       <c r="E73" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>930</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="C74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>933</v>
-      </c>
       <c r="E74" t="s">
         <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>933</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="C75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>936</v>
-      </c>
       <c r="E75" t="s">
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>936</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="C76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>939</v>
-      </c>
       <c r="E76" t="s">
         <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>939</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>942</v>
-      </c>
       <c r="E77" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>942</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="C78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>945</v>
-      </c>
       <c r="E78" t="s">
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>945</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="C79" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>948</v>
-      </c>
       <c r="E79" t="s">
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>948</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="C80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>951</v>
-      </c>
       <c r="E80" t="s">
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>951</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="C81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>954</v>
-      </c>
       <c r="E81" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>954</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="C82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>957</v>
-      </c>
       <c r="E82" t="s">
         <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>957</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>958</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="C83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>960</v>
-      </c>
       <c r="E83" t="s">
         <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>960</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="C84" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>963</v>
-      </c>
       <c r="E84" t="s">
         <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>963</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="C85" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>966</v>
-      </c>
       <c r="E85" t="s">
         <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>966</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>967</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="C86" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>969</v>
-      </c>
       <c r="E86" t="s">
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>969</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>970</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="C87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>972</v>
-      </c>
       <c r="E87" t="s">
         <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>972</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="C88" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>975</v>
-      </c>
       <c r="E88" t="s">
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>975</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="C89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>978</v>
-      </c>
       <c r="E89" t="s">
         <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>978</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="C90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>981</v>
-      </c>
       <c r="E90" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>981</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>982</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="C91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>984</v>
-      </c>
       <c r="E91" t="s">
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>984</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="C92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>893</v>
-      </c>
-      <c r="C92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>986</v>
-      </c>
       <c r="E92" t="s">
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>986</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="C93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="C93" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>989</v>
-      </c>
       <c r="E93" t="s">
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>989</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="C94" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>992</v>
-      </c>
       <c r="E94" t="s">
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>992</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="C95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>995</v>
-      </c>
       <c r="E95" t="s">
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>995</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>996</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="C96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="C96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>998</v>
-      </c>
       <c r="E96" t="s">
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>998</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="C97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="C97" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>1001</v>
-      </c>
       <c r="E97" t="s">
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>1002</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="C98" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>1004</v>
-      </c>
       <c r="E98" t="s">
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="C99" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="C99" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>1007</v>
-      </c>
       <c r="E99" t="s">
         <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="C100" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="C100" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>1010</v>
-      </c>
       <c r="E100" t="s">
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="C101" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="C101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>1013</v>
-      </c>
       <c r="E101" t="s">
         <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>1014</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="C102" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>1016</v>
-      </c>
       <c r="E102" t="s">
         <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="C103" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>1019</v>
-      </c>
       <c r="E103" t="s">
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="C104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="C104" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>1022</v>
-      </c>
       <c r="E104" t="s">
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="C105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="C105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>1025</v>
-      </c>
       <c r="E105" t="s">
         <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>1026</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="C106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="C106" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>1028</v>
-      </c>
       <c r="E106" t="s">
         <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="C107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="C107" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>1031</v>
-      </c>
       <c r="E107" t="s">
         <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="C108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="C108" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>1034</v>
-      </c>
       <c r="E108" t="s">
         <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="C109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="C109" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>1037</v>
-      </c>
       <c r="E109" t="s">
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>1038</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="C110" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1040</v>
-      </c>
       <c r="E110" t="s">
         <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="C111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="C111" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>1043</v>
-      </c>
       <c r="E111" t="s">
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="C112" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="C112" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>1046</v>
-      </c>
       <c r="E112" t="s">
         <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="C113" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>1048</v>
       </c>
-      <c r="C113" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>1049</v>
-      </c>
       <c r="E113" t="s">
         <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="C114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="C114" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>1052</v>
-      </c>
       <c r="E114" t="s">
         <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>1053</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="C115" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>1055</v>
-      </c>
       <c r="E115" t="s">
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>1057</v>
       </c>
-      <c r="C116" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>1058</v>
-      </c>
       <c r="E116" t="s">
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="C117" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C117" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>1061</v>
-      </c>
       <c r="E117" t="s">
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="C118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="C118" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>1064</v>
-      </c>
       <c r="E118" t="s">
         <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="C119" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>1067</v>
-      </c>
       <c r="E119" t="s">
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>1069</v>
       </c>
-      <c r="C120" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>1070</v>
-      </c>
       <c r="E120" t="s">
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="C121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="C121" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>1073</v>
-      </c>
       <c r="E121" t="s">
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="C122" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="C122" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>1076</v>
-      </c>
       <c r="E122" t="s">
         <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="C123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="C123" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>1079</v>
-      </c>
       <c r="E123" t="s">
         <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="C124" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>1081</v>
       </c>
-      <c r="C124" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>1082</v>
-      </c>
       <c r="E124" t="s">
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="C125" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="C125" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>1085</v>
-      </c>
       <c r="E125" t="s">
         <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="C126" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="C126" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>1088</v>
-      </c>
       <c r="E126" t="s">
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="C127" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="C127" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>1091</v>
-      </c>
       <c r="E127" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>1093</v>
       </c>
-      <c r="C128" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>1094</v>
-      </c>
       <c r="E128" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="C129" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="C129" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>1097</v>
-      </c>
       <c r="E129" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="C130" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="C130" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>1100</v>
-      </c>
       <c r="E130" t="s">
         <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="C131" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="C131" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>1103</v>
-      </c>
       <c r="E131" t="s">
         <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>1104</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="C132" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="C132" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>1106</v>
-      </c>
       <c r="E132" t="s">
         <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="C133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="C133" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>1109</v>
-      </c>
       <c r="E133" t="s">
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="C134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>1112</v>
-      </c>
       <c r="E134" t="s">
         <v>49</v>
       </c>
       <c r="F134" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" t="s">
@@ -11537,12 +11537,12 @@
         <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" t="s">
@@ -11552,12 +11552,12 @@
         <v>49</v>
       </c>
       <c r="F136" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" t="s">
@@ -11567,12 +11567,12 @@
         <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" t="s">
@@ -11582,12 +11582,12 @@
         <v>49</v>
       </c>
       <c r="F138" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" t="s">
@@ -11597,7 +11597,7 @@
         <v>49</v>
       </c>
       <c r="F139" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -11626,7 +11626,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>98</v>
@@ -11641,7 +11641,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -11652,7 +11652,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -11709,7 +11709,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11717,7 +11717,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11827,7 +11827,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>76</v>
@@ -11899,7 +11899,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="50"/>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1292BEC4-BA1A-EB4B-9D45-2110D75AFC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B7FCB-FDE8-764E-886F-645E3742E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="49620" windowHeight="26960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="49620" windowHeight="26960" firstSheet="12" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -1681,15 +1681,9 @@
     <t>StudyDesignPopulation</t>
   </si>
   <si>
-    <t>@plannedAge/Range/minValue</t>
-  </si>
-  <si>
     <t>max_age</t>
   </si>
   <si>
-    <t>@plannedAge/Range/maxValue</t>
-  </si>
-  <si>
     <t>StudyPopulation</t>
   </si>
   <si>
@@ -3425,6 +3419,12 @@
   </si>
   <si>
     <t>POP: &lt;usdm:macro id="xref" klass="StudyDesignPopulation" name="POP1" attribute="@plannedEnrollmentNumberQuantity/Quantity/value"&gt;&lt;/usdm:ref&gt;</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/minValue/Quantity/@value</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/maxValue/Quantity/@value</t>
   </si>
 </sst>
 </file>
@@ -7320,7 +7320,7 @@
         <v>470</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>471</v>
@@ -7338,7 +7338,7 @@
         <v>473</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
@@ -7896,8 +7896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7907,7 +7907,7 @@
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -7956,12 +7956,12 @@
         <v>424</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>544</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
         <v>543</v>
@@ -7969,13 +7969,13 @@
       <c r="F3" t="s">
         <v>424</v>
       </c>
-      <c r="G3" t="s">
-        <v>546</v>
+      <c r="G3" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E4" t="s">
         <v>543</v>
@@ -7992,13 +7992,13 @@
         <v>115</v>
       </c>
       <c r="B5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" t="s">
         <v>548</v>
-      </c>
-      <c r="C5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D5" t="s">
-        <v>550</v>
       </c>
       <c r="E5" t="s">
         <v>180</v>
@@ -8007,15 +8007,15 @@
         <v>208</v>
       </c>
       <c r="G5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -8036,34 +8036,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" t="s">
         <v>554</v>
-      </c>
-      <c r="B2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -8096,731 +8096,731 @@
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="36" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="36" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="36" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="36" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="36" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="36" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -8850,124 +8850,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>708</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>709</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>710</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="35" t="s">
         <v>711</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>712</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2" t="s">
         <v>714</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="D2" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>717</v>
-      </c>
       <c r="E2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>720</v>
-      </c>
       <c r="E3" t="s">
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>723</v>
-      </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>726</v>
-      </c>
       <c r="E5" t="s">
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>729</v>
-      </c>
       <c r="E6" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -8976,2558 +8976,2558 @@
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>734</v>
-      </c>
       <c r="E8" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>737</v>
-      </c>
       <c r="E9" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>736</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>740</v>
-      </c>
       <c r="E10" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>740</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>742</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>743</v>
-      </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>742</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>746</v>
-      </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>745</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>749</v>
-      </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>748</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>751</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>752</v>
-      </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>751</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>755</v>
-      </c>
       <c r="E15" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>754</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>758</v>
-      </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>761</v>
-      </c>
       <c r="E17" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>760</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>764</v>
-      </c>
       <c r="E18" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>763</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>767</v>
-      </c>
       <c r="E19" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>766</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>769</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>770</v>
-      </c>
       <c r="E20" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>769</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>773</v>
-      </c>
       <c r="E21" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>772</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>776</v>
-      </c>
       <c r="E22" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>775</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>779</v>
-      </c>
       <c r="E23" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>778</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>781</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>782</v>
-      </c>
       <c r="E24" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>781</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>785</v>
-      </c>
       <c r="E25" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>784</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>788</v>
-      </c>
       <c r="E26" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>787</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>791</v>
-      </c>
       <c r="E27" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>790</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>794</v>
-      </c>
       <c r="E28" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>793</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>797</v>
-      </c>
       <c r="E29" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>796</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>800</v>
-      </c>
       <c r="E30" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>799</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>803</v>
-      </c>
       <c r="E31" t="s">
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>802</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>806</v>
-      </c>
       <c r="E32" t="s">
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>805</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>809</v>
-      </c>
       <c r="E33" t="s">
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>808</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>812</v>
-      </c>
       <c r="E34" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>811</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>815</v>
-      </c>
       <c r="E35" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>814</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>818</v>
-      </c>
       <c r="E36" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>817</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>821</v>
-      </c>
       <c r="E37" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>820</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>824</v>
-      </c>
       <c r="E38" t="s">
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>823</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>827</v>
-      </c>
       <c r="E39" t="s">
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>826</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>830</v>
-      </c>
       <c r="E40" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>829</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>833</v>
-      </c>
       <c r="E41" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>832</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>836</v>
-      </c>
       <c r="E42" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>835</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>839</v>
-      </c>
       <c r="E43" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>838</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>842</v>
-      </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>841</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>845</v>
-      </c>
       <c r="E45" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>844</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>848</v>
-      </c>
       <c r="E46" t="s">
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>847</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>851</v>
-      </c>
       <c r="E47" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>850</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>854</v>
-      </c>
       <c r="E48" t="s">
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>853</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>857</v>
-      </c>
       <c r="E49" t="s">
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>856</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>859</v>
-      </c>
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>860</v>
-      </c>
       <c r="E50" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>859</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>863</v>
-      </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>862</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="C52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>866</v>
-      </c>
       <c r="E52" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>865</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>869</v>
-      </c>
       <c r="E53" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>868</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="C54" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>872</v>
-      </c>
       <c r="E54" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>871</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>875</v>
-      </c>
       <c r="E55" t="s">
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>874</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="C56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>878</v>
-      </c>
       <c r="E56" t="s">
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>877</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>881</v>
-      </c>
       <c r="E57" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>880</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>883</v>
-      </c>
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>884</v>
-      </c>
       <c r="E58" t="s">
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>883</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>887</v>
-      </c>
       <c r="E59" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>886</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>890</v>
-      </c>
       <c r="E60" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>892</v>
-      </c>
-      <c r="C61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>893</v>
-      </c>
       <c r="E61" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>892</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>896</v>
-      </c>
       <c r="E62" t="s">
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>895</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>898</v>
-      </c>
-      <c r="C63" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>899</v>
-      </c>
       <c r="E63" t="s">
         <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>898</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="C64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>902</v>
-      </c>
       <c r="E64" t="s">
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>901</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="C65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>905</v>
-      </c>
       <c r="E65" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>904</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>907</v>
-      </c>
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>908</v>
-      </c>
       <c r="E66" t="s">
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>907</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>909</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="C67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>911</v>
-      </c>
       <c r="E67" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>910</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>913</v>
-      </c>
-      <c r="C68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>914</v>
-      </c>
       <c r="E68" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>913</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="C69" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>917</v>
-      </c>
       <c r="E69" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>916</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="C70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>920</v>
-      </c>
       <c r="E70" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>919</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>923</v>
-      </c>
       <c r="E71" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>922</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="C72" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>926</v>
-      </c>
       <c r="E72" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>925</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="C73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>929</v>
-      </c>
       <c r="E73" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>928</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>931</v>
-      </c>
-      <c r="C74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>932</v>
-      </c>
       <c r="E74" t="s">
         <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>931</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>934</v>
-      </c>
-      <c r="C75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>935</v>
-      </c>
       <c r="E75" t="s">
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>934</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>938</v>
-      </c>
       <c r="E76" t="s">
         <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>937</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>940</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>941</v>
-      </c>
       <c r="E77" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>940</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="C78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>944</v>
-      </c>
       <c r="E78" t="s">
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>943</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>946</v>
-      </c>
-      <c r="C79" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>947</v>
-      </c>
       <c r="E79" t="s">
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>946</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>949</v>
-      </c>
-      <c r="C80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>950</v>
-      </c>
       <c r="E80" t="s">
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>949</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="C81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>953</v>
-      </c>
       <c r="E81" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>952</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>955</v>
-      </c>
-      <c r="C82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>956</v>
-      </c>
       <c r="E82" t="s">
         <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>955</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="C83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>959</v>
-      </c>
       <c r="E83" t="s">
         <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>958</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>961</v>
-      </c>
-      <c r="C84" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>962</v>
-      </c>
       <c r="E84" t="s">
         <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>961</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>964</v>
-      </c>
-      <c r="C85" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>965</v>
-      </c>
       <c r="E85" t="s">
         <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>964</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="C86" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>968</v>
-      </c>
       <c r="E86" t="s">
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>967</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>970</v>
-      </c>
-      <c r="C87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>971</v>
-      </c>
       <c r="E87" t="s">
         <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>970</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>973</v>
-      </c>
-      <c r="C88" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>974</v>
-      </c>
       <c r="E88" t="s">
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>973</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="C89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>977</v>
-      </c>
       <c r="E89" t="s">
         <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>976</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>979</v>
-      </c>
-      <c r="C90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>980</v>
-      </c>
       <c r="E90" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>979</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="C91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>983</v>
-      </c>
       <c r="E91" t="s">
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C92" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E92" t="s">
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>984</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="C93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="C93" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>988</v>
-      </c>
       <c r="E93" t="s">
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>987</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>990</v>
-      </c>
-      <c r="C94" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>991</v>
-      </c>
       <c r="E94" t="s">
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>990</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>993</v>
-      </c>
-      <c r="C95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>994</v>
-      </c>
       <c r="E95" t="s">
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>993</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="C96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>996</v>
-      </c>
-      <c r="C96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>997</v>
-      </c>
       <c r="E96" t="s">
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>996</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="C97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="C97" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>1000</v>
-      </c>
       <c r="E97" t="s">
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>999</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C98" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>1003</v>
-      </c>
       <c r="E98" t="s">
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C99" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C99" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>1006</v>
-      </c>
       <c r="E99" t="s">
         <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C100" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C100" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>1009</v>
-      </c>
       <c r="E100" t="s">
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C101" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>1012</v>
-      </c>
       <c r="E101" t="s">
         <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>1013</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C102" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>1015</v>
-      </c>
       <c r="E102" t="s">
         <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C103" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>1018</v>
-      </c>
       <c r="E103" t="s">
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C104" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>1021</v>
-      </c>
       <c r="E104" t="s">
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>1024</v>
-      </c>
       <c r="E105" t="s">
         <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C106" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>1027</v>
-      </c>
       <c r="E106" t="s">
         <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C107" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>1030</v>
-      </c>
       <c r="E107" t="s">
         <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C108" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>1033</v>
-      </c>
       <c r="E108" t="s">
         <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C109" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>1036</v>
-      </c>
       <c r="E109" t="s">
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C110" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1039</v>
-      </c>
       <c r="E110" t="s">
         <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C111" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>1042</v>
-      </c>
       <c r="E111" t="s">
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C112" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>1043</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C112" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>1045</v>
-      </c>
       <c r="E112" t="s">
         <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C113" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C113" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>1048</v>
-      </c>
       <c r="E113" t="s">
         <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>1049</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C114" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>1051</v>
-      </c>
       <c r="E114" t="s">
         <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C115" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>1054</v>
-      </c>
       <c r="E115" t="s">
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C116" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>1057</v>
-      </c>
       <c r="E116" t="s">
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C117" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C117" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>1060</v>
-      </c>
       <c r="E117" t="s">
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C118" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>1063</v>
-      </c>
       <c r="E118" t="s">
         <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C119" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>1066</v>
-      </c>
       <c r="E119" t="s">
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>1067</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C120" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>1069</v>
-      </c>
       <c r="E120" t="s">
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C121" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>1072</v>
-      </c>
       <c r="E121" t="s">
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C122" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C122" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>1075</v>
-      </c>
       <c r="E122" t="s">
         <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C123" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>1078</v>
-      </c>
       <c r="E123" t="s">
         <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C124" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>1079</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C124" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>1081</v>
-      </c>
       <c r="E124" t="s">
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C125" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C125" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>1084</v>
-      </c>
       <c r="E125" t="s">
         <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C126" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>1085</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C126" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>1087</v>
-      </c>
       <c r="E126" t="s">
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C127" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C127" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>1090</v>
-      </c>
       <c r="E127" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>1091</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C128" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>1093</v>
-      </c>
       <c r="E128" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C129" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C129" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>1096</v>
-      </c>
       <c r="E129" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C130" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C130" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>1099</v>
-      </c>
       <c r="E130" t="s">
         <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C131" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C131" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>1102</v>
-      </c>
       <c r="E131" t="s">
         <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C132" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C132" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>1105</v>
-      </c>
       <c r="E132" t="s">
         <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C133" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>1108</v>
-      </c>
       <c r="E133" t="s">
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>1109</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>1111</v>
-      </c>
       <c r="E134" t="s">
         <v>49</v>
       </c>
       <c r="F134" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" t="s">
@@ -11537,12 +11537,12 @@
         <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" t="s">
@@ -11552,12 +11552,12 @@
         <v>49</v>
       </c>
       <c r="F136" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" t="s">
@@ -11567,12 +11567,12 @@
         <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" t="s">
@@ -11582,12 +11582,12 @@
         <v>49</v>
       </c>
       <c r="F138" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" t="s">
@@ -11597,7 +11597,7 @@
         <v>49</v>
       </c>
       <c r="F139" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -11626,7 +11626,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>98</v>
@@ -11641,7 +11641,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -11652,7 +11652,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -11709,7 +11709,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11717,7 +11717,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11741,7 +11741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -11827,7 +11827,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>76</v>
@@ -11899,7 +11899,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="50"/>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B7FCB-FDE8-764E-886F-645E3742E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB81F5C-5490-FB45-A79A-8D37B725313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="49620" windowHeight="26960" firstSheet="12" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="49620" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1127">
   <si>
     <t>name</t>
   </si>
@@ -3425,6 +3425,9 @@
   </si>
   <si>
     <t>@plannedAge/Range/maxValue/Quantity/@value</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
   </si>
 </sst>
 </file>
@@ -7230,59 +7233,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7896,7 +7913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB81F5C-5490-FB45-A79A-8D37B725313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D095ABB-63A5-1F4D-962D-D91FF5F96A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="49620" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="500" windowWidth="49620" windowHeight="26960" firstSheet="12" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -3418,9 +3418,6 @@
     <t>trialSubTypes</t>
   </si>
   <si>
-    <t>POP: &lt;usdm:macro id="xref" klass="StudyDesignPopulation" name="POP1" attribute="@plannedEnrollmentNumberQuantity/Quantity/value"&gt;&lt;/usdm:ref&gt;</t>
-  </si>
-  <si>
     <t>@plannedAge/Range/minValue/Quantity/@value</t>
   </si>
   <si>
@@ -3428,6 +3425,9 @@
   </si>
   <si>
     <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>POP: &lt;usdm:macro id="xref" klass="StudyDesignPopulation" name="POP1" attribute="@plannedEnrollmentNumber/Quantity/value"&gt;&lt;/usdm:ref&gt;</t>
   </si>
 </sst>
 </file>
@@ -7235,7 +7235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -7973,7 +7973,7 @@
         <v>424</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -7987,7 +7987,7 @@
         <v>424</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -8093,7 +8093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8161,7 +8161,7 @@
         <v>568</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/references.xlsx
+++ b/tests/integration_test_files/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D095ABB-63A5-1F4D-962D-D91FF5F96A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40E962F-E788-4D40-B325-595C44C12E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="500" windowWidth="49620" windowHeight="26960" firstSheet="12" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1126">
   <si>
     <t>name</t>
   </si>
@@ -1372,9 +1372,6 @@
   </si>
   <si>
     <t>To determine if there is a statistically significant relationship (overall Type 1 erroralpha=0.05) between the change in both the ADAS-Cog (11) and CIBIC+ scores, and drug dose (0, 50 cm2 [54 mg], and 75 cm2 [81 mg]).</t>
-  </si>
-  <si>
-    <t>Primary Objective</t>
   </si>
   <si>
     <t>END1</t>
@@ -1429,9 +1426,6 @@
 areas.</t>
   </si>
   <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>END6</t>
   </si>
   <si>
@@ -3428,6 +3422,9 @@
   </si>
   <si>
     <t>POP: &lt;usdm:macro id="xref" klass="StudyDesignPopulation" name="POP1" attribute="@plannedEnrollmentNumber/Quantity/value"&gt;&lt;/usdm:ref&gt;</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
   </si>
 </sst>
 </file>
@@ -6823,8 +6820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6891,18 +6888,18 @@
         <v>441</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>443</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -6911,15 +6908,15 @@
     <row r="3" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="13"/>
       <c r="F3" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -6927,26 +6924,26 @@
     </row>
     <row r="4" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>243</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -6955,14 +6952,14 @@
     <row r="5" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="13"/>
       <c r="F5" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>452</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>453</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -6971,17 +6968,17 @@
     <row r="6" spans="1:15" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="13"/>
       <c r="F6" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>455</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>456</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -6989,28 +6986,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>461</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -7018,15 +7015,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F8" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -7034,14 +7031,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -7280,7 +7277,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -7328,34 +7325,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>473</v>
-      </c>
       <c r="J1" s="18" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -7395,58 +7392,58 @@
         <v>26</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="15" t="s">
         <v>477</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>480</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>483</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="28" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -7489,16 +7486,16 @@
         <v>27</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>490</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7506,25 +7503,25 @@
         <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7532,22 +7529,22 @@
         <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7555,25 +7552,25 @@
         <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -7581,19 +7578,19 @@
         <v>190</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -7601,19 +7598,19 @@
         <v>191</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>168</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -7621,19 +7618,19 @@
         <v>192</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -7641,19 +7638,19 @@
         <v>193</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -7661,19 +7658,19 @@
         <v>194</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7681,19 +7678,19 @@
         <v>195</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -7701,19 +7698,19 @@
         <v>196</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -7721,19 +7718,19 @@
         <v>197</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7741,22 +7738,22 @@
         <v>198</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>497</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -7793,10 +7790,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7804,7 +7801,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>83</v>
@@ -7813,21 +7810,21 @@
         <v>202</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7835,13 +7832,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7849,13 +7846,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7863,13 +7860,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>527</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>528</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7877,13 +7874,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7891,16 +7888,16 @@
         <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="44" t="s">
         <v>533</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -7938,19 +7935,19 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>537</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -7958,44 +7955,44 @@
         <v>106</v>
       </c>
       <c r="B2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D2" t="s">
         <v>540</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>541</v>
-      </c>
-      <c r="D2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E2" t="s">
-        <v>543</v>
       </c>
       <c r="F2" t="s">
         <v>424</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F3" t="s">
         <v>424</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F4" t="s">
         <v>424</v>
@@ -8009,13 +8006,13 @@
         <v>115</v>
       </c>
       <c r="B5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" t="s">
         <v>546</v>
-      </c>
-      <c r="C5" t="s">
-        <v>547</v>
-      </c>
-      <c r="D5" t="s">
-        <v>548</v>
       </c>
       <c r="E5" t="s">
         <v>180</v>
@@ -8024,15 +8021,15 @@
         <v>208</v>
       </c>
       <c r="G5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -8053,34 +8050,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" t="s">
         <v>552</v>
-      </c>
-      <c r="B2" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8093,7 +8090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8113,731 +8110,731 @@
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="36" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="36" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="36" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="36" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="36" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="36" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="36" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -8867,124 +8864,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>705</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>708</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="35" t="s">
         <v>709</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>710</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" t="s">
         <v>712</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="D2" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>715</v>
-      </c>
       <c r="E2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>718</v>
-      </c>
       <c r="E3" t="s">
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>721</v>
-      </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>724</v>
-      </c>
       <c r="E5" t="s">
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>727</v>
-      </c>
       <c r="E6" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -8993,2558 +8990,2558 @@
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>732</v>
-      </c>
       <c r="E8" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>734</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>735</v>
-      </c>
       <c r="E9" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>734</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>738</v>
-      </c>
       <c r="E10" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>738</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>741</v>
-      </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>740</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>744</v>
-      </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>743</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>747</v>
-      </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>746</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>750</v>
-      </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>749</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="E15" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>752</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>756</v>
-      </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>755</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>759</v>
-      </c>
       <c r="E17" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>758</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>762</v>
-      </c>
       <c r="E18" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>761</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>765</v>
-      </c>
       <c r="E19" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>764</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>768</v>
-      </c>
       <c r="E20" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>767</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>770</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>771</v>
-      </c>
       <c r="E21" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>770</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>774</v>
-      </c>
       <c r="E22" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>773</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>777</v>
-      </c>
       <c r="E23" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>776</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>779</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>780</v>
-      </c>
       <c r="E24" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>779</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>783</v>
-      </c>
       <c r="E25" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>782</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>786</v>
-      </c>
       <c r="E26" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>785</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>789</v>
-      </c>
       <c r="E27" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>788</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>792</v>
-      </c>
       <c r="E28" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>791</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>795</v>
-      </c>
       <c r="E29" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>794</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>798</v>
-      </c>
       <c r="E30" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>797</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>801</v>
-      </c>
       <c r="E31" t="s">
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>800</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>804</v>
-      </c>
       <c r="E32" t="s">
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>803</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>807</v>
-      </c>
       <c r="E33" t="s">
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>806</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>810</v>
-      </c>
       <c r="E34" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>809</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>813</v>
-      </c>
       <c r="E35" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>812</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>816</v>
-      </c>
       <c r="E36" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>815</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>819</v>
-      </c>
       <c r="E37" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>818</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>822</v>
-      </c>
       <c r="E38" t="s">
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>821</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>825</v>
-      </c>
       <c r="E39" t="s">
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>824</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>827</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>828</v>
-      </c>
       <c r="E40" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>827</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>831</v>
-      </c>
       <c r="E41" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>830</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>834</v>
-      </c>
       <c r="E42" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>833</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>837</v>
-      </c>
       <c r="E43" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>836</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>839</v>
-      </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>840</v>
-      </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>839</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>843</v>
-      </c>
       <c r="E45" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>842</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>846</v>
-      </c>
       <c r="E46" t="s">
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>845</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>849</v>
-      </c>
       <c r="E47" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>848</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>852</v>
-      </c>
       <c r="E48" t="s">
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>851</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="C49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>855</v>
-      </c>
       <c r="E49" t="s">
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>854</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>858</v>
-      </c>
       <c r="E50" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>857</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>861</v>
-      </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>860</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>864</v>
-      </c>
       <c r="E52" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>863</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>867</v>
-      </c>
       <c r="E53" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>866</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="C54" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>870</v>
-      </c>
       <c r="E54" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>869</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>873</v>
-      </c>
       <c r="E55" t="s">
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>872</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>876</v>
-      </c>
       <c r="E56" t="s">
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>875</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>878</v>
-      </c>
-      <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>879</v>
-      </c>
       <c r="E57" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>878</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>882</v>
-      </c>
       <c r="E58" t="s">
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>881</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>884</v>
-      </c>
-      <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>885</v>
-      </c>
       <c r="E59" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>884</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>887</v>
-      </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>888</v>
-      </c>
       <c r="E60" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>890</v>
-      </c>
-      <c r="C61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>891</v>
-      </c>
       <c r="E61" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>890</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>893</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>894</v>
-      </c>
       <c r="E62" t="s">
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>893</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="C63" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>897</v>
-      </c>
       <c r="E63" t="s">
         <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>896</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="C64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>900</v>
-      </c>
       <c r="E64" t="s">
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>899</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>902</v>
-      </c>
-      <c r="C65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>903</v>
-      </c>
       <c r="E65" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>902</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>905</v>
-      </c>
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>906</v>
-      </c>
       <c r="E66" t="s">
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>905</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>908</v>
-      </c>
-      <c r="C67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>909</v>
-      </c>
       <c r="E67" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>908</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>911</v>
-      </c>
-      <c r="C68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>912</v>
-      </c>
       <c r="E68" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>911</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>914</v>
-      </c>
-      <c r="C69" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>915</v>
-      </c>
       <c r="E69" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>914</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="C70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>918</v>
-      </c>
       <c r="E70" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>917</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>921</v>
-      </c>
       <c r="E71" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>920</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="C72" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>924</v>
-      </c>
       <c r="E72" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>923</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>926</v>
-      </c>
-      <c r="C73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>927</v>
-      </c>
       <c r="E73" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>926</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="C74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>930</v>
-      </c>
       <c r="E74" t="s">
         <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>929</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>932</v>
-      </c>
-      <c r="C75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>933</v>
-      </c>
       <c r="E75" t="s">
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>932</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>935</v>
-      </c>
-      <c r="C76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>936</v>
-      </c>
       <c r="E76" t="s">
         <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>935</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>938</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>939</v>
-      </c>
       <c r="E77" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>938</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>941</v>
-      </c>
-      <c r="C78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>942</v>
-      </c>
       <c r="E78" t="s">
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>941</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>944</v>
-      </c>
-      <c r="C79" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>945</v>
-      </c>
       <c r="E79" t="s">
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>944</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>947</v>
-      </c>
-      <c r="C80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>948</v>
-      </c>
       <c r="E80" t="s">
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>947</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>950</v>
-      </c>
-      <c r="C81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>951</v>
-      </c>
       <c r="E81" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>950</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>953</v>
-      </c>
-      <c r="C82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>954</v>
-      </c>
       <c r="E82" t="s">
         <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>953</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="C83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>957</v>
-      </c>
       <c r="E83" t="s">
         <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>956</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>959</v>
-      </c>
-      <c r="C84" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>960</v>
-      </c>
       <c r="E84" t="s">
         <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>959</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="C85" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>963</v>
-      </c>
       <c r="E85" t="s">
         <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>962</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="C86" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>966</v>
-      </c>
       <c r="E86" t="s">
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>965</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>968</v>
-      </c>
-      <c r="C87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>969</v>
-      </c>
       <c r="E87" t="s">
         <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>968</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>971</v>
-      </c>
-      <c r="C88" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>972</v>
-      </c>
       <c r="E88" t="s">
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>971</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="C89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>975</v>
-      </c>
       <c r="E89" t="s">
         <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>974</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>977</v>
-      </c>
-      <c r="C90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>978</v>
-      </c>
       <c r="E90" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>977</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>980</v>
-      </c>
-      <c r="C91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>981</v>
-      </c>
       <c r="E91" t="s">
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C92" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E92" t="s">
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>982</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="C93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>985</v>
-      </c>
-      <c r="C93" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>986</v>
-      </c>
       <c r="E93" t="s">
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>985</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="C94" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>989</v>
-      </c>
       <c r="E94" t="s">
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>988</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>991</v>
-      </c>
-      <c r="C95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>992</v>
-      </c>
       <c r="E95" t="s">
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>991</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="C96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>994</v>
-      </c>
-      <c r="C96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>995</v>
-      </c>
       <c r="E96" t="s">
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>994</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="C97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>997</v>
-      </c>
-      <c r="C97" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>998</v>
-      </c>
       <c r="E97" t="s">
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>997</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C98" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>1001</v>
-      </c>
       <c r="E98" t="s">
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C99" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C99" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>1004</v>
-      </c>
       <c r="E99" t="s">
         <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C100" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C100" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>1007</v>
-      </c>
       <c r="E100" t="s">
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C101" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>1010</v>
-      </c>
       <c r="E101" t="s">
         <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C102" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>1013</v>
-      </c>
       <c r="E102" t="s">
         <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C103" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>1016</v>
-      </c>
       <c r="E103" t="s">
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C104" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>1019</v>
-      </c>
       <c r="E104" t="s">
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>1022</v>
-      </c>
       <c r="E105" t="s">
         <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C106" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>1025</v>
-      </c>
       <c r="E106" t="s">
         <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C107" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>1028</v>
-      </c>
       <c r="E107" t="s">
         <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C108" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>1031</v>
-      </c>
       <c r="E108" t="s">
         <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>1032</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C109" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>1034</v>
-      </c>
       <c r="E109" t="s">
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C110" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1037</v>
-      </c>
       <c r="E110" t="s">
         <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C111" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>1040</v>
-      </c>
       <c r="E111" t="s">
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C112" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C112" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>1043</v>
-      </c>
       <c r="E112" t="s">
         <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C113" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C113" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>1046</v>
-      </c>
       <c r="E113" t="s">
         <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C114" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>1049</v>
-      </c>
       <c r="E114" t="s">
         <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C115" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>1052</v>
-      </c>
       <c r="E115" t="s">
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C116" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>1055</v>
-      </c>
       <c r="E116" t="s">
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C117" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C117" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>1058</v>
-      </c>
       <c r="E117" t="s">
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C118" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>1061</v>
-      </c>
       <c r="E118" t="s">
         <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C119" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>1064</v>
-      </c>
       <c r="E119" t="s">
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>1065</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C120" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>1067</v>
-      </c>
       <c r="E120" t="s">
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C121" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>1070</v>
-      </c>
       <c r="E121" t="s">
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C122" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>1071</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C122" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>1073</v>
-      </c>
       <c r="E122" t="s">
         <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C123" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>1076</v>
-      </c>
       <c r="E123" t="s">
         <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C124" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>1077</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C124" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>1079</v>
-      </c>
       <c r="E124" t="s">
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C125" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C125" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>1082</v>
-      </c>
       <c r="E125" t="s">
         <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C126" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C126" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>1085</v>
-      </c>
       <c r="E126" t="s">
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C127" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C127" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>1088</v>
-      </c>
       <c r="E127" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>1089</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C128" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>1091</v>
-      </c>
       <c r="E128" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C129" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C129" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>1094</v>
-      </c>
       <c r="E129" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C130" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C130" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>1097</v>
-      </c>
       <c r="E130" t="s">
         <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C131" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C131" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>1100</v>
-      </c>
       <c r="E131" t="s">
         <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C132" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C132" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>1103</v>
-      </c>
       <c r="E132" t="s">
         <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C133" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>1106</v>
-      </c>
       <c r="E133" t="s">
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>1109</v>
-      </c>
       <c r="E134" t="s">
         <v>49</v>
       </c>
       <c r="F134" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" t="s">
@@ -11554,12 +11551,12 @@
         <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" t="s">
@@ -11569,12 +11566,12 @@
         <v>49</v>
       </c>
       <c r="F136" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" t="s">
@@ -11584,12 +11581,12 @@
         <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" t="s">
@@ -11599,12 +11596,12 @@
         <v>49</v>
       </c>
       <c r="F138" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" t="s">
@@ -11614,7 +11611,7 @@
         <v>49</v>
       </c>
       <c r="F139" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -11643,7 +11640,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>98</v>
@@ -11658,7 +11655,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -11669,7 +11666,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -11726,7 +11723,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11734,7 +11731,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11844,7 +11841,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>76</v>
@@ -11916,7 +11913,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="50"/>
